--- a/data/pca/factorExposure/factorExposure_2018-03-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008884643852041914</v>
+        <v>-0.01365569277678188</v>
       </c>
       <c r="C2">
-        <v>0.02232871602169369</v>
+        <v>0.02764873147225606</v>
       </c>
       <c r="D2">
-        <v>-0.01975603852961742</v>
+        <v>0.02343413144779893</v>
       </c>
       <c r="E2">
-        <v>0.00715650565611405</v>
+        <v>0.02158398253826707</v>
       </c>
       <c r="F2">
-        <v>-0.07552592184551281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.004003353071458265</v>
+      </c>
+      <c r="G2">
+        <v>0.01220346608678102</v>
+      </c>
+      <c r="H2">
+        <v>-0.04556767477998983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09540751898202461</v>
+        <v>-0.05691673712287602</v>
       </c>
       <c r="C3">
-        <v>0.03714923625181357</v>
+        <v>0.07426766475116026</v>
       </c>
       <c r="D3">
-        <v>0.001741178607936124</v>
+        <v>0.004152775719541603</v>
       </c>
       <c r="E3">
-        <v>0.04049663025914236</v>
+        <v>0.04299957175646844</v>
       </c>
       <c r="F3">
-        <v>-0.3074265742999212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.07091899638335478</v>
+      </c>
+      <c r="G3">
+        <v>0.05031480168437905</v>
+      </c>
+      <c r="H3">
+        <v>-0.1349656726503038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04398026060778103</v>
+        <v>-0.03302016733565725</v>
       </c>
       <c r="C4">
-        <v>0.003632936266887839</v>
+        <v>0.06237904877911948</v>
       </c>
       <c r="D4">
-        <v>-0.03172498811560556</v>
+        <v>0.01664193675458434</v>
       </c>
       <c r="E4">
-        <v>-0.03852780603535117</v>
+        <v>-0.02495469885824631</v>
       </c>
       <c r="F4">
-        <v>-0.0604755349139101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.002406394189904983</v>
+      </c>
+      <c r="G4">
+        <v>0.04388677674762636</v>
+      </c>
+      <c r="H4">
+        <v>-0.05486549975990563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03607597920526618</v>
+        <v>-0.01763512978369926</v>
       </c>
       <c r="C6">
-        <v>0.01066244020638948</v>
+        <v>0.06457663576926699</v>
       </c>
       <c r="D6">
-        <v>-0.03917898175536649</v>
+        <v>0.01158114749098409</v>
       </c>
       <c r="E6">
-        <v>-0.03103838379002823</v>
+        <v>-0.01264528184230472</v>
       </c>
       <c r="F6">
-        <v>-0.02229651591576572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0119694969222962</v>
+      </c>
+      <c r="G6">
+        <v>0.02719410096522003</v>
+      </c>
+      <c r="H6">
+        <v>-0.04924247286085553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03719141216989648</v>
+        <v>-0.005573999043727616</v>
       </c>
       <c r="C7">
-        <v>-0.0368027209564493</v>
+        <v>0.0353560571863777</v>
       </c>
       <c r="D7">
-        <v>-0.0178431582170886</v>
+        <v>0.01020183781297511</v>
       </c>
       <c r="E7">
-        <v>-0.01155749293786907</v>
+        <v>-0.03521567121146339</v>
       </c>
       <c r="F7">
-        <v>-0.02992271681780467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03323390348773255</v>
+      </c>
+      <c r="G7">
+        <v>0.004392565753761413</v>
+      </c>
+      <c r="H7">
+        <v>-0.0309205496497019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01284939299766205</v>
+        <v>0.003983931475389359</v>
       </c>
       <c r="C8">
-        <v>-0.00641951205560356</v>
+        <v>0.009458429261270595</v>
       </c>
       <c r="D8">
-        <v>-0.03263997705460292</v>
+        <v>0.001558710934880174</v>
       </c>
       <c r="E8">
-        <v>-0.02968839208065795</v>
+        <v>-0.003674806657754862</v>
       </c>
       <c r="F8">
-        <v>-0.05416641117467392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02113009428430329</v>
+      </c>
+      <c r="G8">
+        <v>0.02532164210782365</v>
+      </c>
+      <c r="H8">
+        <v>-0.02734501437364028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0328375594294059</v>
+        <v>-0.01863739462704502</v>
       </c>
       <c r="C9">
-        <v>0.0009691933470883311</v>
+        <v>0.04948340888492633</v>
       </c>
       <c r="D9">
-        <v>-0.02727839395304724</v>
+        <v>0.01131768872773604</v>
       </c>
       <c r="E9">
-        <v>-0.01432877533384534</v>
+        <v>-0.005262574893376579</v>
       </c>
       <c r="F9">
-        <v>-0.07618293223064276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01425448969524326</v>
+      </c>
+      <c r="G9">
+        <v>0.02680683807867819</v>
+      </c>
+      <c r="H9">
+        <v>-0.05469355553888886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04824777392403157</v>
+        <v>-0.1407423712362309</v>
       </c>
       <c r="C10">
-        <v>0.01030906695463945</v>
+        <v>-0.1396306815328839</v>
       </c>
       <c r="D10">
-        <v>0.1405503029942595</v>
+        <v>-0.02225310548461028</v>
       </c>
       <c r="E10">
-        <v>0.06435574975987082</v>
+        <v>0.02449988650545315</v>
       </c>
       <c r="F10">
-        <v>-0.04847215232857544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04406659582814036</v>
+      </c>
+      <c r="G10">
+        <v>-0.008670860992994115</v>
+      </c>
+      <c r="H10">
+        <v>0.002892621666231758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02818786186379633</v>
+        <v>-0.01326263139560344</v>
       </c>
       <c r="C11">
-        <v>0.01582868648325191</v>
+        <v>0.05097653400986355</v>
       </c>
       <c r="D11">
-        <v>-0.03857218460298132</v>
+        <v>-0.001793789053810904</v>
       </c>
       <c r="E11">
-        <v>-0.02561260980848838</v>
+        <v>-0.003109281877583371</v>
       </c>
       <c r="F11">
-        <v>-0.02099672190711249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.006391170435375483</v>
+      </c>
+      <c r="G11">
+        <v>0.01401910803068583</v>
+      </c>
+      <c r="H11">
+        <v>-0.04773709356045242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04043622862826431</v>
+        <v>-0.01830131324228127</v>
       </c>
       <c r="C12">
-        <v>0.01442966664243671</v>
+        <v>0.0490736310119153</v>
       </c>
       <c r="D12">
-        <v>-0.0339841567283564</v>
+        <v>0.001855149763952107</v>
       </c>
       <c r="E12">
-        <v>-0.03285344185346566</v>
+        <v>-0.01663740024345445</v>
       </c>
       <c r="F12">
-        <v>0.005624129537697629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.004141416584629029</v>
+      </c>
+      <c r="G12">
+        <v>0.008211792229717026</v>
+      </c>
+      <c r="H12">
+        <v>-0.01918608770198216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009374178004863801</v>
+        <v>-0.01442864757347514</v>
       </c>
       <c r="C13">
-        <v>0.01844182553414346</v>
+        <v>0.02594865649166967</v>
       </c>
       <c r="D13">
-        <v>-0.005957219102252444</v>
+        <v>0.01993369666716948</v>
       </c>
       <c r="E13">
-        <v>-0.009295901063484501</v>
+        <v>0.01898212129288784</v>
       </c>
       <c r="F13">
-        <v>-0.06756045171144724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.005277196078449788</v>
+      </c>
+      <c r="G13">
+        <v>0.03843732330420674</v>
+      </c>
+      <c r="H13">
+        <v>-0.06748362578727256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02512265202410725</v>
+        <v>-0.007750491640393064</v>
       </c>
       <c r="C14">
-        <v>-0.006480682072247435</v>
+        <v>0.02300572553516398</v>
       </c>
       <c r="D14">
-        <v>-0.01145126065277774</v>
+        <v>0.005532617123910438</v>
       </c>
       <c r="E14">
-        <v>-0.01802962387991275</v>
+        <v>-0.0110118910152586</v>
       </c>
       <c r="F14">
-        <v>-0.04284554764394555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01910066090486216</v>
+      </c>
+      <c r="G14">
+        <v>0.02149740619722366</v>
+      </c>
+      <c r="H14">
+        <v>-0.01991209704615946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02959745083082153</v>
+        <v>-0.01526704239154098</v>
       </c>
       <c r="C16">
-        <v>0.01450227206526383</v>
+        <v>0.04454819280606239</v>
       </c>
       <c r="D16">
-        <v>-0.04180947012086404</v>
+        <v>-0.002214069981381657</v>
       </c>
       <c r="E16">
-        <v>-0.02622169395824417</v>
+        <v>-0.005723817219916275</v>
       </c>
       <c r="F16">
-        <v>-0.02805571403196444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.001804593792129704</v>
+      </c>
+      <c r="G16">
+        <v>0.01600621113632714</v>
+      </c>
+      <c r="H16">
+        <v>-0.03627504092596337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03608664084643376</v>
+        <v>-0.01588524559295413</v>
       </c>
       <c r="C19">
-        <v>0.009690832413614492</v>
+        <v>0.04229637697603225</v>
       </c>
       <c r="D19">
-        <v>-0.03117746422888435</v>
+        <v>0.009834810286869184</v>
       </c>
       <c r="E19">
-        <v>-0.04072052608097962</v>
+        <v>-0.005141364665343771</v>
       </c>
       <c r="F19">
-        <v>-0.07083123862417869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01932841878774491</v>
+      </c>
+      <c r="G19">
+        <v>0.03975067844461619</v>
+      </c>
+      <c r="H19">
+        <v>-0.05859543372716945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002798254365956155</v>
+        <v>-0.002524461762010444</v>
       </c>
       <c r="C20">
-        <v>-0.009201136993018834</v>
+        <v>0.02276001540645236</v>
       </c>
       <c r="D20">
-        <v>0.00109920513290366</v>
+        <v>0.009785011506638326</v>
       </c>
       <c r="E20">
-        <v>-0.01399278210613279</v>
+        <v>0.004842680184427773</v>
       </c>
       <c r="F20">
-        <v>-0.0470761307578199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02137528675793902</v>
+      </c>
+      <c r="G20">
+        <v>0.03184244113484402</v>
+      </c>
+      <c r="H20">
+        <v>-0.03273211768459471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02442388378540506</v>
+        <v>-0.005780239323739544</v>
       </c>
       <c r="C21">
-        <v>-0.01039706160992065</v>
+        <v>0.02189577579878786</v>
       </c>
       <c r="D21">
-        <v>-0.02331936272173537</v>
+        <v>0.01236418018685878</v>
       </c>
       <c r="E21">
-        <v>-0.01508636781819577</v>
+        <v>-0.003381010317962085</v>
       </c>
       <c r="F21">
-        <v>-0.02787151784480585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02753844939927712</v>
+      </c>
+      <c r="G21">
+        <v>0.01739909771301357</v>
+      </c>
+      <c r="H21">
+        <v>-0.03603269973132241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02436711374137769</v>
+        <v>-0.009049832816544709</v>
       </c>
       <c r="C24">
-        <v>0.01275787059546518</v>
+        <v>0.04284474126490651</v>
       </c>
       <c r="D24">
-        <v>-0.02979638310367827</v>
+        <v>0.003334473604573299</v>
       </c>
       <c r="E24">
-        <v>-0.02204839055803317</v>
+        <v>-0.007054334559503351</v>
       </c>
       <c r="F24">
-        <v>-0.01545819208173168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.00757505429413215</v>
+      </c>
+      <c r="G24">
+        <v>0.008216469372206974</v>
+      </c>
+      <c r="H24">
+        <v>-0.04014257409251556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0308392680349839</v>
+        <v>-0.02333095051921731</v>
       </c>
       <c r="C25">
-        <v>0.0121100431098531</v>
+        <v>0.0512109014240104</v>
       </c>
       <c r="D25">
-        <v>-0.0330640232027721</v>
+        <v>0.006137301437042745</v>
       </c>
       <c r="E25">
-        <v>-0.01984944917382354</v>
+        <v>-0.0144819955775561</v>
       </c>
       <c r="F25">
-        <v>-0.02846009307148538</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.006890043540220761</v>
+      </c>
+      <c r="G25">
+        <v>0.01708618350231758</v>
+      </c>
+      <c r="H25">
+        <v>-0.03940007934047125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01435299559051802</v>
+        <v>-0.006043698887390913</v>
       </c>
       <c r="C26">
-        <v>0.002279865450380507</v>
+        <v>0.007464273912794005</v>
       </c>
       <c r="D26">
-        <v>-0.01471058362965287</v>
+        <v>0.02216636720088499</v>
       </c>
       <c r="E26">
-        <v>0.008851502735845045</v>
+        <v>-0.0007148572852401191</v>
       </c>
       <c r="F26">
-        <v>-0.05199519806190604</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01270980991652339</v>
+      </c>
+      <c r="G26">
+        <v>0.007368591237608754</v>
+      </c>
+      <c r="H26">
+        <v>-0.01921771480506474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02765340661193766</v>
+        <v>-0.008037575296176269</v>
       </c>
       <c r="C27">
-        <v>0.003466912447201397</v>
+        <v>0.00837999169256093</v>
       </c>
       <c r="D27">
-        <v>0.0008481397618317923</v>
+        <v>-0.001566797716751614</v>
       </c>
       <c r="E27">
-        <v>-0.02469098898292587</v>
+        <v>-0.005633029807784705</v>
       </c>
       <c r="F27">
-        <v>-0.00513000052179157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.009963058479412257</v>
+      </c>
+      <c r="G27">
+        <v>0.006063922751698767</v>
+      </c>
+      <c r="H27">
+        <v>0.008518567581974428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09146678030710545</v>
+        <v>-0.1917478006665737</v>
       </c>
       <c r="C28">
-        <v>0.01789793720365066</v>
+        <v>-0.176829292615572</v>
       </c>
       <c r="D28">
-        <v>0.2070102244800667</v>
+        <v>-0.01630059891871457</v>
       </c>
       <c r="E28">
-        <v>0.1038682870322076</v>
+        <v>0.005969865305569986</v>
       </c>
       <c r="F28">
-        <v>-0.04328957414107272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04689749231064669</v>
+      </c>
+      <c r="G28">
+        <v>-0.01691447574501027</v>
+      </c>
+      <c r="H28">
+        <v>0.005589470622316037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02755559763127951</v>
+        <v>-0.01242423284794956</v>
       </c>
       <c r="C29">
-        <v>-0.00221349801929188</v>
+        <v>0.02057307162049132</v>
       </c>
       <c r="D29">
-        <v>-0.01091738552535067</v>
+        <v>0.004488735335688315</v>
       </c>
       <c r="E29">
-        <v>-0.02042242759709385</v>
+        <v>-0.00758034247774479</v>
       </c>
       <c r="F29">
-        <v>-0.0409764503255144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02055798794498823</v>
+      </c>
+      <c r="G29">
+        <v>0.02130422689796257</v>
+      </c>
+      <c r="H29">
+        <v>-0.01187873947868604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03636451392691058</v>
+        <v>-0.02149294823949781</v>
       </c>
       <c r="C30">
-        <v>0.05842339674863137</v>
+        <v>0.08674669090804253</v>
       </c>
       <c r="D30">
-        <v>-0.05624967729414992</v>
+        <v>0.02107861489686834</v>
       </c>
       <c r="E30">
-        <v>-0.02780296617484802</v>
+        <v>0.02594015518370993</v>
       </c>
       <c r="F30">
-        <v>-0.07607558342032722</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.017284691627979</v>
+      </c>
+      <c r="G30">
+        <v>0.04681165182602496</v>
+      </c>
+      <c r="H30">
+        <v>-0.07500654270873741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04941201917893973</v>
+        <v>-0.03418919840076284</v>
       </c>
       <c r="C31">
-        <v>0.01874554204457493</v>
+        <v>0.03502899227941376</v>
       </c>
       <c r="D31">
-        <v>-0.02028024634085662</v>
+        <v>-0.0006675986921159861</v>
       </c>
       <c r="E31">
-        <v>-0.02636195422896892</v>
+        <v>-0.004988061439507877</v>
       </c>
       <c r="F31">
-        <v>-0.03526270004121424</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01301065075082563</v>
+      </c>
+      <c r="G31">
+        <v>0.00802935352892642</v>
+      </c>
+      <c r="H31">
+        <v>-0.004005799004910684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02265698954292494</v>
+        <v>0.001472283843775156</v>
       </c>
       <c r="C32">
-        <v>-0.02094210704917519</v>
+        <v>0.0128126016486731</v>
       </c>
       <c r="D32">
-        <v>-0.04398338536385218</v>
+        <v>-0.008093788670327416</v>
       </c>
       <c r="E32">
-        <v>-0.04190744172332908</v>
+        <v>-0.02486586939344049</v>
       </c>
       <c r="F32">
-        <v>-0.04040258810152446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.02622808256170106</v>
+      </c>
+      <c r="G32">
+        <v>0.04593962115991325</v>
+      </c>
+      <c r="H32">
+        <v>-0.04372629835944124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03306373289118918</v>
+        <v>-0.01728710055807244</v>
       </c>
       <c r="C33">
-        <v>0.03399960932381166</v>
+        <v>0.04929958287860166</v>
       </c>
       <c r="D33">
-        <v>-0.04612411200909499</v>
+        <v>0.009633485939658952</v>
       </c>
       <c r="E33">
-        <v>-0.01129467001786583</v>
+        <v>0.02420993472809439</v>
       </c>
       <c r="F33">
-        <v>-0.05430918391765805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01001762174893083</v>
+      </c>
+      <c r="G33">
+        <v>0.01181267729359013</v>
+      </c>
+      <c r="H33">
+        <v>-0.05225112372865913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03191560489344492</v>
+        <v>-0.02418357731233473</v>
       </c>
       <c r="C34">
-        <v>0.006221155267607066</v>
+        <v>0.05284367563501205</v>
       </c>
       <c r="D34">
-        <v>-0.04041851215353751</v>
+        <v>-0.01032244509456456</v>
       </c>
       <c r="E34">
-        <v>-0.03336743542589379</v>
+        <v>-0.02432378410053024</v>
       </c>
       <c r="F34">
-        <v>-0.01990293763066461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.008462407505677113</v>
+      </c>
+      <c r="G34">
+        <v>0.01200756491731985</v>
+      </c>
+      <c r="H34">
+        <v>-0.03803424947513933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0199139626239527</v>
+        <v>-0.01257736591931681</v>
       </c>
       <c r="C36">
-        <v>-0.003548301153983469</v>
+        <v>0.007757778654911195</v>
       </c>
       <c r="D36">
-        <v>-0.002098536653890474</v>
+        <v>0.008912270631324866</v>
       </c>
       <c r="E36">
-        <v>-0.01324055687008274</v>
+        <v>-0.003501856780673945</v>
       </c>
       <c r="F36">
-        <v>-0.03046566911570749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01518195200254101</v>
+      </c>
+      <c r="G36">
+        <v>0.008314757057839057</v>
+      </c>
+      <c r="H36">
+        <v>-0.01247795270027586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01263806623266641</v>
+        <v>-0.02533370755635932</v>
       </c>
       <c r="C38">
-        <v>0.007190422400108846</v>
+        <v>0.02193632494529692</v>
       </c>
       <c r="D38">
-        <v>-0.001368594772789412</v>
+        <v>-0.01128417568339627</v>
       </c>
       <c r="E38">
-        <v>0.02194087105051484</v>
+        <v>0.0009820140495776185</v>
       </c>
       <c r="F38">
-        <v>-0.04282391853912587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.002715597146147629</v>
+      </c>
+      <c r="G38">
+        <v>0.01213459783491339</v>
+      </c>
+      <c r="H38">
+        <v>-0.03454361781189758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02625953400422586</v>
+        <v>-0.001470313697921352</v>
       </c>
       <c r="C39">
-        <v>0.01356181984789634</v>
+        <v>0.08847972279803051</v>
       </c>
       <c r="D39">
-        <v>-0.05863520676942455</v>
+        <v>0.007646073023122047</v>
       </c>
       <c r="E39">
-        <v>-0.02742118045064287</v>
+        <v>-0.000201127909548836</v>
       </c>
       <c r="F39">
-        <v>-0.04621982430014224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0115361559100799</v>
+      </c>
+      <c r="G39">
+        <v>0.02099510758823228</v>
+      </c>
+      <c r="H39">
+        <v>-0.07767590448088658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01770217121497716</v>
+        <v>-0.0203807250161256</v>
       </c>
       <c r="C40">
-        <v>0.04032341384529309</v>
+        <v>0.02959129266486355</v>
       </c>
       <c r="D40">
-        <v>-0.0179631864135839</v>
+        <v>0.007211396296986811</v>
       </c>
       <c r="E40">
-        <v>-0.03113477665562106</v>
+        <v>0.008847989984331244</v>
       </c>
       <c r="F40">
-        <v>-0.02535611224949975</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02499458955844502</v>
+      </c>
+      <c r="G40">
+        <v>0.02434232798323888</v>
+      </c>
+      <c r="H40">
+        <v>-0.04369569776394121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01004044276514361</v>
+        <v>-0.01180570505747051</v>
       </c>
       <c r="C41">
-        <v>0.00109011067545492</v>
+        <v>-0.007054305603815587</v>
       </c>
       <c r="D41">
-        <v>-0.001690582936825682</v>
+        <v>0.002294199962692863</v>
       </c>
       <c r="E41">
-        <v>0.01283045975294555</v>
+        <v>-0.0006048660628006599</v>
       </c>
       <c r="F41">
-        <v>-0.006038519906996558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.007565626462621723</v>
+      </c>
+      <c r="G41">
+        <v>-0.007981235954108637</v>
+      </c>
+      <c r="H41">
+        <v>0.003770660303631757</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2321212602444614</v>
+        <v>-0.07485658685836581</v>
       </c>
       <c r="C42">
-        <v>0.2089549886837377</v>
+        <v>0.2115064344490788</v>
       </c>
       <c r="D42">
-        <v>-0.3898741847918475</v>
+        <v>0.1191347925829306</v>
       </c>
       <c r="E42">
-        <v>0.8001939512893315</v>
+        <v>0.3355039468146421</v>
       </c>
       <c r="F42">
-        <v>0.2591007313110039</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1270147315549731</v>
+      </c>
+      <c r="G42">
+        <v>-0.8865772036923123</v>
+      </c>
+      <c r="H42">
+        <v>-0.04852033776212451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01224612587958895</v>
+        <v>-0.012978331580264</v>
       </c>
       <c r="C43">
-        <v>0.004120471299696308</v>
+        <v>-0.004585999787631555</v>
       </c>
       <c r="D43">
-        <v>-0.005282702139667333</v>
+        <v>0.002872020892714031</v>
       </c>
       <c r="E43">
-        <v>7.583475802556428e-05</v>
+        <v>-0.001774813097601613</v>
       </c>
       <c r="F43">
-        <v>-0.02600018783770816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004548059032589456</v>
+      </c>
+      <c r="G43">
+        <v>-0.006539701924550404</v>
+      </c>
+      <c r="H43">
+        <v>-0.00561903604746035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02273569291902402</v>
+        <v>-0.005375433091904484</v>
       </c>
       <c r="C44">
-        <v>-0.01185554352115911</v>
+        <v>0.03992280443311518</v>
       </c>
       <c r="D44">
-        <v>-0.02565619754377566</v>
+        <v>0.00331679405582228</v>
       </c>
       <c r="E44">
-        <v>0.004742271115626407</v>
+        <v>-0.002213155097142612</v>
       </c>
       <c r="F44">
-        <v>-0.08616723686659181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02955954816749741</v>
+      </c>
+      <c r="G44">
+        <v>0.009769235900988332</v>
+      </c>
+      <c r="H44">
+        <v>-0.06260389413549271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02011027715259259</v>
+        <v>-0.004093277096645156</v>
       </c>
       <c r="C46">
-        <v>0.004850083023740767</v>
+        <v>0.01427314697556649</v>
       </c>
       <c r="D46">
-        <v>-0.03880734011800845</v>
+        <v>0.009812498613211327</v>
       </c>
       <c r="E46">
-        <v>-0.02688433050205259</v>
+        <v>-0.00185300698379468</v>
       </c>
       <c r="F46">
-        <v>-0.05780182921682007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01272828901779239</v>
+      </c>
+      <c r="G46">
+        <v>0.01352036405788425</v>
+      </c>
+      <c r="H46">
+        <v>-0.01571110815793425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0782655270530567</v>
+        <v>-0.05410662753594753</v>
       </c>
       <c r="C47">
-        <v>0.03533809611841001</v>
+        <v>0.06951828156766354</v>
       </c>
       <c r="D47">
-        <v>-0.01379552735154214</v>
+        <v>-0.01135638865781282</v>
       </c>
       <c r="E47">
-        <v>-0.03466912759959979</v>
+        <v>-0.007018294517875153</v>
       </c>
       <c r="F47">
-        <v>-0.004353940463666278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.007210902256426688</v>
+      </c>
+      <c r="G47">
+        <v>0.007878203153897465</v>
+      </c>
+      <c r="H47">
+        <v>0.03552795427861326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01970148359177014</v>
+        <v>-0.0129108586135897</v>
       </c>
       <c r="C48">
-        <v>0.006507217426050043</v>
+        <v>0.01763004070081821</v>
       </c>
       <c r="D48">
-        <v>-0.01203410387258681</v>
+        <v>-0.0005270381712222258</v>
       </c>
       <c r="E48">
-        <v>-0.01162438381494113</v>
+        <v>-0.001284905232385506</v>
       </c>
       <c r="F48">
-        <v>-0.03159738894720222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.007363164986503367</v>
+      </c>
+      <c r="G48">
+        <v>0.008898494210503106</v>
+      </c>
+      <c r="H48">
+        <v>-0.01797528781297826</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08630813373467584</v>
+        <v>-0.05515538568955734</v>
       </c>
       <c r="C50">
-        <v>0.01069139910826038</v>
+        <v>0.06551531743999847</v>
       </c>
       <c r="D50">
-        <v>-0.03124184953189336</v>
+        <v>-0.009237575424345133</v>
       </c>
       <c r="E50">
-        <v>-0.02442096640003881</v>
+        <v>-0.02126003260935458</v>
       </c>
       <c r="F50">
-        <v>-0.01804957860817309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02500219649226675</v>
+      </c>
+      <c r="G50">
+        <v>0.001772335852199285</v>
+      </c>
+      <c r="H50">
+        <v>0.0214747640076751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01769250639294775</v>
+        <v>-0.01458375767766473</v>
       </c>
       <c r="C51">
-        <v>-0.002996931077845108</v>
+        <v>0.01777659743952153</v>
       </c>
       <c r="D51">
-        <v>0.006560981044951852</v>
+        <v>0.004486406386392946</v>
       </c>
       <c r="E51">
-        <v>-0.00411476472516267</v>
+        <v>-0.006771387775859658</v>
       </c>
       <c r="F51">
-        <v>-0.09386811899316086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01272652136422131</v>
+      </c>
+      <c r="G51">
+        <v>0.01678933010892769</v>
+      </c>
+      <c r="H51">
+        <v>-0.05029524544076324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09140057051048109</v>
+        <v>-0.07062826774306506</v>
       </c>
       <c r="C53">
-        <v>0.03555042298804924</v>
+        <v>0.1066163317173033</v>
       </c>
       <c r="D53">
-        <v>-0.04124433189515846</v>
+        <v>-0.01297165270750792</v>
       </c>
       <c r="E53">
-        <v>-0.0518948352436023</v>
+        <v>-0.02159760596785442</v>
       </c>
       <c r="F53">
-        <v>0.03165723219367299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.009007809525206427</v>
+      </c>
+      <c r="G53">
+        <v>0.002191149067209697</v>
+      </c>
+      <c r="H53">
+        <v>0.04108029988336834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02756876435750278</v>
+        <v>-0.02274528913551721</v>
       </c>
       <c r="C54">
-        <v>-0.002920582806755633</v>
+        <v>0.003072726780454532</v>
       </c>
       <c r="D54">
-        <v>0.006238718099939488</v>
+        <v>-0.006780132019071228</v>
       </c>
       <c r="E54">
-        <v>-0.02505935286246114</v>
+        <v>0.0001190594113727237</v>
       </c>
       <c r="F54">
-        <v>-0.0284709411029707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02558517950073057</v>
+      </c>
+      <c r="G54">
+        <v>0.02282753704583793</v>
+      </c>
+      <c r="H54">
+        <v>-0.009505879275254859</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08280745888101441</v>
+        <v>-0.05071246321848379</v>
       </c>
       <c r="C55">
-        <v>0.03133328728560098</v>
+        <v>0.09518654272633446</v>
       </c>
       <c r="D55">
-        <v>-0.0503669162962725</v>
+        <v>-0.01026848525197793</v>
       </c>
       <c r="E55">
-        <v>-0.0384107501106525</v>
+        <v>-0.01062557442758334</v>
       </c>
       <c r="F55">
-        <v>0.03041316506619508</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.005160086221293564</v>
+      </c>
+      <c r="G55">
+        <v>0.002983878351104623</v>
+      </c>
+      <c r="H55">
+        <v>0.03965707194553492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1281064020871407</v>
+        <v>-0.09567749753057672</v>
       </c>
       <c r="C56">
-        <v>0.06036015617418957</v>
+        <v>0.135029443969891</v>
       </c>
       <c r="D56">
-        <v>-0.02315441898905797</v>
+        <v>-0.02260657514329138</v>
       </c>
       <c r="E56">
-        <v>-0.08251403071257848</v>
+        <v>-0.031347675671852</v>
       </c>
       <c r="F56">
-        <v>0.0579665095548671</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.02619962020418668</v>
+      </c>
+      <c r="G56">
+        <v>0.003319144819791886</v>
+      </c>
+      <c r="H56">
+        <v>0.08720736176469213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0371966012910816</v>
+        <v>-0.02135550802027938</v>
       </c>
       <c r="C57">
-        <v>0.01706792285095035</v>
+        <v>0.0300669752426895</v>
       </c>
       <c r="D57">
-        <v>-0.02457152811323807</v>
+        <v>0.02171901833347229</v>
       </c>
       <c r="E57">
-        <v>0.03468035510281069</v>
+        <v>0.02248218894636215</v>
       </c>
       <c r="F57">
-        <v>-0.05699560898852906</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03634549751419972</v>
+      </c>
+      <c r="G57">
+        <v>0.02124420675617662</v>
+      </c>
+      <c r="H57">
+        <v>-0.06791550857123942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.16892388794941</v>
+        <v>-0.06874611791599598</v>
       </c>
       <c r="C58">
-        <v>0.2001287021445459</v>
+        <v>0.1758754199617732</v>
       </c>
       <c r="D58">
-        <v>-0.1914476553232068</v>
+        <v>0.001521629505198074</v>
       </c>
       <c r="E58">
-        <v>-0.02410512453673647</v>
+        <v>0.6841844955339959</v>
       </c>
       <c r="F58">
-        <v>-0.6021885892746042</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.5378105821922226</v>
+      </c>
+      <c r="G58">
+        <v>0.3821705001266075</v>
+      </c>
+      <c r="H58">
+        <v>0.05161590281256879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07519059293452403</v>
+        <v>-0.2098456743924496</v>
       </c>
       <c r="C59">
-        <v>0.04008833446187916</v>
+        <v>-0.1630983531865728</v>
       </c>
       <c r="D59">
-        <v>0.1788961355121732</v>
+        <v>-0.02447456239605977</v>
       </c>
       <c r="E59">
-        <v>0.05695830099887048</v>
+        <v>0.01438504150061992</v>
       </c>
       <c r="F59">
-        <v>-0.0716353893742846</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01374970653183743</v>
+      </c>
+      <c r="G59">
+        <v>0.007821054886967382</v>
+      </c>
+      <c r="H59">
+        <v>-0.01645358675078134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1427598386191775</v>
+        <v>-0.2287051401620847</v>
       </c>
       <c r="C60">
-        <v>0.09770842538895565</v>
+        <v>0.09047900805635893</v>
       </c>
       <c r="D60">
-        <v>-9.098207267017797e-06</v>
+        <v>-0.0132720244004819</v>
       </c>
       <c r="E60">
-        <v>0.0183281196558504</v>
+        <v>-0.02857451440574082</v>
       </c>
       <c r="F60">
-        <v>-0.1574613955254548</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1602232042453827</v>
+      </c>
+      <c r="G60">
+        <v>0.05619395808961723</v>
+      </c>
+      <c r="H60">
+        <v>-0.3875232216347699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02118547930712337</v>
+        <v>-0.01119007287203833</v>
       </c>
       <c r="C61">
-        <v>0.008447908843277915</v>
+        <v>0.06456263560372878</v>
       </c>
       <c r="D61">
-        <v>-0.03992333256984943</v>
+        <v>0.0007433751842509312</v>
       </c>
       <c r="E61">
-        <v>-0.01278911592812895</v>
+        <v>-0.008218916219437952</v>
       </c>
       <c r="F61">
-        <v>-0.02167049646700485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.006779011342127285</v>
+      </c>
+      <c r="G61">
+        <v>0.02122209775089476</v>
+      </c>
+      <c r="H61">
+        <v>-0.05743000096820765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01745732609944762</v>
+        <v>-0.006126339476164078</v>
       </c>
       <c r="C63">
-        <v>0.002660443108752318</v>
+        <v>0.02427137970949241</v>
       </c>
       <c r="D63">
-        <v>-0.01782945940136009</v>
+        <v>0.005981963097808726</v>
       </c>
       <c r="E63">
-        <v>-0.007034895151125447</v>
+        <v>-0.01035904866385248</v>
       </c>
       <c r="F63">
-        <v>-0.006822568426411942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006367143622194145</v>
+      </c>
+      <c r="G63">
+        <v>0.009837129125344141</v>
+      </c>
+      <c r="H63">
+        <v>-0.01461926532375901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04203778345659957</v>
+        <v>-0.03403885458262008</v>
       </c>
       <c r="C64">
-        <v>0.002539022117943505</v>
+        <v>0.04610406084144775</v>
       </c>
       <c r="D64">
-        <v>-0.02642932042536879</v>
+        <v>-8.720050298560922e-05</v>
       </c>
       <c r="E64">
-        <v>-0.02386519840525983</v>
+        <v>-0.02288188889485597</v>
       </c>
       <c r="F64">
-        <v>-0.01562156900965559</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.007331431758279984</v>
+      </c>
+      <c r="G64">
+        <v>-0.009215382730869354</v>
+      </c>
+      <c r="H64">
+        <v>-0.03486162606746977</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03994674684334332</v>
+        <v>-0.04044081089514413</v>
       </c>
       <c r="C65">
-        <v>0.01144942949850049</v>
+        <v>0.08498412000937913</v>
       </c>
       <c r="D65">
-        <v>-0.03985118030653439</v>
+        <v>0.009928269909935164</v>
       </c>
       <c r="E65">
-        <v>-0.03563965086380479</v>
+        <v>-0.02525555138484251</v>
       </c>
       <c r="F65">
-        <v>-0.01495639391468403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03199902286933042</v>
+      </c>
+      <c r="G65">
+        <v>0.03076419942176198</v>
+      </c>
+      <c r="H65">
+        <v>-0.06272563580420396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03485379878959639</v>
+        <v>-0.009670108984015879</v>
       </c>
       <c r="C66">
-        <v>0.02535285954101427</v>
+        <v>0.1186383721070211</v>
       </c>
       <c r="D66">
-        <v>-0.0618282456096317</v>
+        <v>0.004270160596425554</v>
       </c>
       <c r="E66">
-        <v>-0.05481755960033918</v>
+        <v>-0.005177319847214671</v>
       </c>
       <c r="F66">
-        <v>-0.0317991319331398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.02673061568815275</v>
+      </c>
+      <c r="G66">
+        <v>0.04169698360874035</v>
+      </c>
+      <c r="H66">
+        <v>-0.08186952917634242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02374059254486687</v>
+        <v>-0.04912111765375501</v>
       </c>
       <c r="C67">
-        <v>0.01326586703762127</v>
+        <v>0.03034353670074741</v>
       </c>
       <c r="D67">
-        <v>0.009060246459333034</v>
+        <v>-0.01178832787670295</v>
       </c>
       <c r="E67">
-        <v>0.01566436444423307</v>
+        <v>-0.006809443024567752</v>
       </c>
       <c r="F67">
-        <v>-0.02818524492254201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.008581869928867858</v>
+      </c>
+      <c r="G67">
+        <v>0.01588423018625339</v>
+      </c>
+      <c r="H67">
+        <v>-0.03370383374702435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08560231279938128</v>
+        <v>-0.2114930486025689</v>
       </c>
       <c r="C68">
-        <v>0.03183957731246948</v>
+        <v>-0.2026937352562772</v>
       </c>
       <c r="D68">
-        <v>0.2031374310927104</v>
+        <v>-0.005013568849315087</v>
       </c>
       <c r="E68">
-        <v>0.07136963852611178</v>
+        <v>0.03136763783800097</v>
       </c>
       <c r="F68">
-        <v>-0.06358453425917682</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05249794901255664</v>
+      </c>
+      <c r="G68">
+        <v>-0.01782499090236348</v>
+      </c>
+      <c r="H68">
+        <v>0.02929641108554355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0642825989609616</v>
+        <v>-0.0540728921631437</v>
       </c>
       <c r="C69">
-        <v>0.02952107414176126</v>
+        <v>0.06464236154612948</v>
       </c>
       <c r="D69">
-        <v>-0.01332301315000328</v>
+        <v>-0.01545650083112391</v>
       </c>
       <c r="E69">
-        <v>-0.03699455291251772</v>
+        <v>-0.02069314365520518</v>
       </c>
       <c r="F69">
-        <v>-0.003770319755579754</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01289858190927416</v>
+      </c>
+      <c r="G69">
+        <v>0.01103403251268843</v>
+      </c>
+      <c r="H69">
+        <v>0.008367144308004934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08753139538702162</v>
+        <v>-0.1859739650949677</v>
       </c>
       <c r="C71">
-        <v>0.03726859321117372</v>
+        <v>-0.1581462157987243</v>
       </c>
       <c r="D71">
-        <v>0.1976395368814785</v>
+        <v>-0.01073817105258033</v>
       </c>
       <c r="E71">
-        <v>0.1136100390980271</v>
+        <v>0.03299876285054557</v>
       </c>
       <c r="F71">
-        <v>-0.06637168898523717</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05192960672347251</v>
+      </c>
+      <c r="G71">
+        <v>-0.02665914113469325</v>
+      </c>
+      <c r="H71">
+        <v>0.00539517136636476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1048944886429165</v>
+        <v>-0.05446410766974611</v>
       </c>
       <c r="C72">
-        <v>0.05861820159254518</v>
+        <v>0.1104868894743919</v>
       </c>
       <c r="D72">
-        <v>-0.07897407620054626</v>
+        <v>-0.01707420020640577</v>
       </c>
       <c r="E72">
-        <v>-0.0903209201724869</v>
+        <v>-0.007793618651190126</v>
       </c>
       <c r="F72">
-        <v>-0.09010257143477958</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03534032457820949</v>
+      </c>
+      <c r="G72">
+        <v>0.05834100235374735</v>
+      </c>
+      <c r="H72">
+        <v>-0.0885549922296929</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1706265782046527</v>
+        <v>-0.2935311732948267</v>
       </c>
       <c r="C73">
-        <v>0.1651760442145247</v>
+        <v>0.1531689683948919</v>
       </c>
       <c r="D73">
-        <v>-0.02059063721419215</v>
+        <v>-0.01291773799639872</v>
       </c>
       <c r="E73">
-        <v>0.04327766699555019</v>
+        <v>0.01395480984377305</v>
       </c>
       <c r="F73">
-        <v>-0.1770515600007349</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1990773763185614</v>
+      </c>
+      <c r="G73">
+        <v>0.05969423399933191</v>
+      </c>
+      <c r="H73">
+        <v>-0.4488737603798163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1175281029157827</v>
+        <v>-0.09359979223203314</v>
       </c>
       <c r="C74">
-        <v>0.05433610363093182</v>
+        <v>0.1392647249923702</v>
       </c>
       <c r="D74">
-        <v>-0.03531703981381906</v>
+        <v>-0.0224351629736511</v>
       </c>
       <c r="E74">
-        <v>-0.05475895857638706</v>
+        <v>-0.02926619304839582</v>
       </c>
       <c r="F74">
-        <v>0.072544102036182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01759215999716012</v>
+      </c>
+      <c r="G74">
+        <v>0.004217532060038902</v>
+      </c>
+      <c r="H74">
+        <v>0.05569074698939085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2095025352400871</v>
+        <v>-0.1980017014017782</v>
       </c>
       <c r="C75">
-        <v>0.1161982160572478</v>
+        <v>0.2332988559508272</v>
       </c>
       <c r="D75">
-        <v>-0.03293564591308136</v>
+        <v>-0.04741359290528453</v>
       </c>
       <c r="E75">
-        <v>-0.1642965498217065</v>
+        <v>-0.04237878629094319</v>
       </c>
       <c r="F75">
-        <v>0.111162825375941</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.05911444543421697</v>
+      </c>
+      <c r="G75">
+        <v>0.02832878109904094</v>
+      </c>
+      <c r="H75">
+        <v>0.1839377593402289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2580652278435802</v>
+        <v>-0.1434828248833452</v>
       </c>
       <c r="C76">
-        <v>0.09653515488415919</v>
+        <v>0.2031367562712828</v>
       </c>
       <c r="D76">
-        <v>-0.0371847598154202</v>
+        <v>-0.04041879584093103</v>
       </c>
       <c r="E76">
-        <v>-0.1900613826817724</v>
+        <v>-0.07748886290059231</v>
       </c>
       <c r="F76">
-        <v>0.2161566797623724</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.02883808968916904</v>
+      </c>
+      <c r="G76">
+        <v>0.008113706081725023</v>
+      </c>
+      <c r="H76">
+        <v>0.161933358795792</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0949019776366077</v>
+        <v>-0.04409358715033374</v>
       </c>
       <c r="C77">
-        <v>0.05610620600933462</v>
+        <v>0.08823899173836305</v>
       </c>
       <c r="D77">
-        <v>-0.07724082369064424</v>
+        <v>0.007317635758503144</v>
       </c>
       <c r="E77">
-        <v>0.03040850167898697</v>
+        <v>0.02830707144014957</v>
       </c>
       <c r="F77">
-        <v>-0.09306161564799018</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03810539412116908</v>
+      </c>
+      <c r="G77">
+        <v>0.004337195985765288</v>
+      </c>
+      <c r="H77">
+        <v>-0.02170085361298938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05452941416719063</v>
+        <v>-0.02044811231065734</v>
       </c>
       <c r="C78">
-        <v>0.01171932548737352</v>
+        <v>0.07592638131272518</v>
       </c>
       <c r="D78">
-        <v>-0.09484219963597688</v>
+        <v>0.002130883768601603</v>
       </c>
       <c r="E78">
-        <v>-0.04046350220666911</v>
+        <v>-0.002314003477891723</v>
       </c>
       <c r="F78">
-        <v>-0.07560891339279376</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01321091750940488</v>
+      </c>
+      <c r="G78">
+        <v>0.03163878976520743</v>
+      </c>
+      <c r="H78">
+        <v>-0.08773546781968468</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5106046072494566</v>
+        <v>-0.09539073730941119</v>
       </c>
       <c r="C80">
-        <v>-0.8365206729002491</v>
+        <v>0.1154119538136755</v>
       </c>
       <c r="D80">
-        <v>-0.0548620639751718</v>
+        <v>-0.004546581660898226</v>
       </c>
       <c r="E80">
-        <v>0.06818730198157859</v>
+        <v>-0.6043478553896405</v>
       </c>
       <c r="F80">
-        <v>-0.05168591058680604</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.7368686169357634</v>
+      </c>
+      <c r="G80">
+        <v>-0.0822411443639285</v>
+      </c>
+      <c r="H80">
+        <v>-0.1177237396070284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1722791014139841</v>
+        <v>-0.1240038333925958</v>
       </c>
       <c r="C81">
-        <v>0.07742301096788627</v>
+        <v>0.1496029612165313</v>
       </c>
       <c r="D81">
-        <v>-0.0143491011431714</v>
+        <v>-0.02893940774689597</v>
       </c>
       <c r="E81">
-        <v>-0.126598810231321</v>
+        <v>-0.04130250303781909</v>
       </c>
       <c r="F81">
-        <v>0.0939311489283092</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.02026733552180057</v>
+      </c>
+      <c r="G81">
+        <v>0.01125141355108821</v>
+      </c>
+      <c r="H81">
+        <v>0.11451521592802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002870180639641594</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.001465792699349121</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0004898415231093779</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.001303898135755197</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002577193427009191</v>
+      </c>
+      <c r="G82">
+        <v>0.0004793912024766699</v>
+      </c>
+      <c r="H82">
+        <v>-0.003137341660618034</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03387553281147252</v>
+        <v>-0.02224835789609035</v>
       </c>
       <c r="C83">
-        <v>0.02126871820688372</v>
+        <v>0.02177906429162541</v>
       </c>
       <c r="D83">
-        <v>-0.01978448588053808</v>
+        <v>0.002383242904885799</v>
       </c>
       <c r="E83">
-        <v>0.01751739840582226</v>
+        <v>0.01462260350734124</v>
       </c>
       <c r="F83">
-        <v>-0.05465106329152359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01753814060450471</v>
+      </c>
+      <c r="G83">
+        <v>0.01182894619161371</v>
+      </c>
+      <c r="H83">
+        <v>-0.04351977707180595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2291928605158875</v>
+        <v>-0.1803634800319523</v>
       </c>
       <c r="C85">
-        <v>0.1166287897618532</v>
+        <v>0.2199788731722097</v>
       </c>
       <c r="D85">
-        <v>-0.03741522271445735</v>
+        <v>-0.03258995371828718</v>
       </c>
       <c r="E85">
-        <v>-0.166563405843728</v>
+        <v>-0.05588953768542813</v>
       </c>
       <c r="F85">
-        <v>0.1610979536489495</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08755643903572732</v>
+      </c>
+      <c r="G85">
+        <v>-0.004902892269405761</v>
+      </c>
+      <c r="H85">
+        <v>0.1307141347904887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.008056096948616814</v>
+        <v>-0.008456877210678048</v>
       </c>
       <c r="C86">
-        <v>-0.001225494266351128</v>
+        <v>0.03486369331667067</v>
       </c>
       <c r="D86">
-        <v>-0.05050376765235601</v>
+        <v>0.006495744072990954</v>
       </c>
       <c r="E86">
-        <v>-0.002152392761180263</v>
+        <v>0.004630220975617431</v>
       </c>
       <c r="F86">
-        <v>-0.05871102974625135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02010259646162556</v>
+      </c>
+      <c r="G86">
+        <v>-0.001795849415225773</v>
+      </c>
+      <c r="H86">
+        <v>-0.0754190676641361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02775111370649669</v>
+        <v>-0.001592063453164071</v>
       </c>
       <c r="C87">
-        <v>0.008892727682251881</v>
+        <v>0.03875168872004274</v>
       </c>
       <c r="D87">
-        <v>-0.03916287927906038</v>
+        <v>0.008021738658439989</v>
       </c>
       <c r="E87">
-        <v>-0.01196411200133971</v>
+        <v>0.01983697575892179</v>
       </c>
       <c r="F87">
-        <v>-0.08943170597228843</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03553271487946144</v>
+      </c>
+      <c r="G87">
+        <v>0.03252501397288788</v>
+      </c>
+      <c r="H87">
+        <v>-0.08523350725762578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0241502131666131</v>
+        <v>-0.04298288458245165</v>
       </c>
       <c r="C88">
-        <v>-0.002270736431744424</v>
+        <v>0.01949454185781984</v>
       </c>
       <c r="D88">
-        <v>0.004290103557624841</v>
+        <v>0.01672509285707488</v>
       </c>
       <c r="E88">
-        <v>-0.00686792760623986</v>
+        <v>-0.02449648177565908</v>
       </c>
       <c r="F88">
-        <v>0.02681984160949771</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.000318304169293909</v>
+      </c>
+      <c r="G88">
+        <v>0.005445289663162761</v>
+      </c>
+      <c r="H88">
+        <v>0.004859276295365018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1340003885875198</v>
+        <v>-0.3268034033626526</v>
       </c>
       <c r="C89">
-        <v>0.0826163915099935</v>
+        <v>-0.2854625146334008</v>
       </c>
       <c r="D89">
-        <v>0.3530294183090385</v>
+        <v>-0.01839606840087752</v>
       </c>
       <c r="E89">
-        <v>0.09065784987060248</v>
+        <v>0.01817601183901112</v>
       </c>
       <c r="F89">
-        <v>-0.09267854161977405</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.001255305014671631</v>
+      </c>
+      <c r="G89">
+        <v>-0.02113732893855</v>
+      </c>
+      <c r="H89">
+        <v>0.02079044747301702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1049949121762822</v>
+        <v>-0.2719652648722246</v>
       </c>
       <c r="C90">
-        <v>0.0341635783587735</v>
+        <v>-0.2619762095698553</v>
       </c>
       <c r="D90">
-        <v>0.3357475188814619</v>
+        <v>-0.0176530573377239</v>
       </c>
       <c r="E90">
-        <v>0.113757752995604</v>
+        <v>0.02296355246169275</v>
       </c>
       <c r="F90">
-        <v>-0.02122796682029774</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04514574072126575</v>
+      </c>
+      <c r="G90">
+        <v>-0.03413809156574975</v>
+      </c>
+      <c r="H90">
+        <v>0.05731423006326476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2603071859289736</v>
+        <v>-0.1869514758935878</v>
       </c>
       <c r="C91">
-        <v>0.1509362524665131</v>
+        <v>0.2109182708625131</v>
       </c>
       <c r="D91">
-        <v>-0.05372215706798641</v>
+        <v>-0.04402609986722866</v>
       </c>
       <c r="E91">
-        <v>-0.1495775206296975</v>
+        <v>-0.04153379217477803</v>
       </c>
       <c r="F91">
-        <v>0.2314731130487108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.06385128734489544</v>
+      </c>
+      <c r="G91">
+        <v>-0.004306453341255894</v>
+      </c>
+      <c r="H91">
+        <v>0.1983197907381749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1774529045969672</v>
+        <v>-0.2800282505048413</v>
       </c>
       <c r="C92">
-        <v>0.08055183691382782</v>
+        <v>-0.1769112582125707</v>
       </c>
       <c r="D92">
-        <v>0.4085488278555687</v>
+        <v>-0.06109364536428703</v>
       </c>
       <c r="E92">
-        <v>0.04906139647436562</v>
+        <v>0.02661617660344225</v>
       </c>
       <c r="F92">
-        <v>0.1342517498760649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06923764099156052</v>
+      </c>
+      <c r="G92">
+        <v>0.0003383997948463607</v>
+      </c>
+      <c r="H92">
+        <v>0.1457050078706558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1132247921948022</v>
+        <v>-0.3050073737405664</v>
       </c>
       <c r="C93">
-        <v>0.08598892319338861</v>
+        <v>-0.2561664631543252</v>
       </c>
       <c r="D93">
-        <v>0.3844746924953104</v>
+        <v>-0.02687314662011791</v>
       </c>
       <c r="E93">
-        <v>0.1707659812859474</v>
+        <v>0.04473110885705929</v>
       </c>
       <c r="F93">
-        <v>-0.03833462684828028</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.00809385685271915</v>
+      </c>
+      <c r="G93">
+        <v>-0.04151022435878089</v>
+      </c>
+      <c r="H93">
+        <v>-0.007319504996378608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2745075062435152</v>
+        <v>-0.2272164755971242</v>
       </c>
       <c r="C94">
-        <v>0.1766710674826317</v>
+        <v>0.2401341363260413</v>
       </c>
       <c r="D94">
-        <v>-0.006843795970399962</v>
+        <v>-0.03400847767687501</v>
       </c>
       <c r="E94">
-        <v>-0.2489594334601219</v>
+        <v>-0.05724102590743958</v>
       </c>
       <c r="F94">
-        <v>0.1445235064375217</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1299593076679074</v>
+      </c>
+      <c r="G94">
+        <v>0.06238345309517156</v>
+      </c>
+      <c r="H94">
+        <v>0.4514994356784596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02489672281471044</v>
+        <v>-0.03290661983401522</v>
       </c>
       <c r="C95">
-        <v>0.09987705769339726</v>
+        <v>0.1054196266389417</v>
       </c>
       <c r="D95">
-        <v>-0.0346216957606677</v>
+        <v>-0.01237837466939487</v>
       </c>
       <c r="E95">
-        <v>-0.03097996429144731</v>
+        <v>0.08543551226190707</v>
       </c>
       <c r="F95">
-        <v>-0.02617160750568043</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.04152384775684469</v>
+      </c>
+      <c r="G95">
+        <v>0.01966249211358995</v>
+      </c>
+      <c r="H95">
+        <v>-0.06808956668197885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1421909729095055</v>
+        <v>-0.186104048715208</v>
       </c>
       <c r="C98">
-        <v>0.1066657804409558</v>
+        <v>0.07320231281741556</v>
       </c>
       <c r="D98">
-        <v>0.0107984215120958</v>
+        <v>-0.03427082157105877</v>
       </c>
       <c r="E98">
-        <v>0.07553764587345119</v>
+        <v>0.03720343493074728</v>
       </c>
       <c r="F98">
-        <v>-0.1621137185620168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.06814577923545688</v>
+      </c>
+      <c r="G98">
+        <v>0.01871724952361409</v>
+      </c>
+      <c r="H98">
+        <v>-0.333594428724062</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01364606460835945</v>
+        <v>-0.006261865507073558</v>
       </c>
       <c r="C101">
-        <v>-0.001382761716636397</v>
+        <v>0.02020534703365937</v>
       </c>
       <c r="D101">
-        <v>-0.03666113162704182</v>
+        <v>0.00540927903495995</v>
       </c>
       <c r="E101">
-        <v>-0.03149366973862811</v>
+        <v>0.02561262932681387</v>
       </c>
       <c r="F101">
-        <v>-0.1806645160936103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.05040010426804621</v>
+      </c>
+      <c r="G101">
+        <v>0.05331059235291562</v>
+      </c>
+      <c r="H101">
+        <v>-0.01729826422927155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1130579960711653</v>
+        <v>-0.09321545738737556</v>
       </c>
       <c r="C102">
-        <v>0.05735232898964494</v>
+        <v>0.1107830583357411</v>
       </c>
       <c r="D102">
-        <v>-0.01654437048201633</v>
+        <v>-0.009612646983997339</v>
       </c>
       <c r="E102">
-        <v>-0.08590965354089081</v>
+        <v>-0.03286971631313327</v>
       </c>
       <c r="F102">
-        <v>0.08744030974885711</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.04493073381220584</v>
+      </c>
+      <c r="G102">
+        <v>0.005758145119009525</v>
+      </c>
+      <c r="H102">
+        <v>0.07203625034845107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04824125135492883</v>
+        <v>-0.01215196622970938</v>
       </c>
       <c r="C103">
-        <v>0.008617231575269205</v>
+        <v>0.01799226237966549</v>
       </c>
       <c r="D103">
-        <v>-0.01635413722529638</v>
+        <v>-0.001542424071363606</v>
       </c>
       <c r="E103">
-        <v>-0.03747059026474909</v>
+        <v>-0.008066081776252053</v>
       </c>
       <c r="F103">
-        <v>0.01179562215743738</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01300457628808228</v>
+      </c>
+      <c r="G103">
+        <v>0.002136450143747154</v>
+      </c>
+      <c r="H103">
+        <v>0.0146409000568895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1032561819772256</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.008376918758731706</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.980554588056901</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.05372425825616196</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03218378779320225</v>
+      </c>
+      <c r="G104">
+        <v>0.1051300039850728</v>
+      </c>
+      <c r="H104">
+        <v>0.05807918253838823</v>
       </c>
     </row>
   </sheetData>
